--- a/Tables examples/vocabulary-example.xlsx
+++ b/Tables examples/vocabulary-example.xlsx
@@ -1,26 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CardMaker-Pro\Tables examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275A214E-F4D7-498C-AAA0-4FB4C24594EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267F438B-2DE4-4245-889A-02AB526D8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="4044" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>¿Qué resultados pretendes encontrar con esta investigación?</t>
+  </si>
+  <si>
+    <t>La historia era mi asignatura favorita en el colegio.</t>
+  </si>
+  <si>
+    <t>Estoy en mi cuarto curso en la facultad de medicina</t>
+  </si>
+  <si>
+    <t>La Facultad de Ingeniería está en el centro de la ciudad.</t>
+  </si>
+  <si>
+    <t>El Ministerio de Educación ha aprobado un nuevo plan de estudios.</t>
+  </si>
+  <si>
+    <t>¿Cuál de estas es la mochila tuya?</t>
+  </si>
+  <si>
+    <t>¡Esta película es tan aburrida!</t>
+  </si>
   <si>
     <t>Front</t>
   </si>
@@ -28,57 +54,57 @@
     <t>Back</t>
   </si>
   <si>
-    <t>Black hole stars were excessive any way you look at them</t>
-  </si>
-  <si>
-    <t>Its scale is beyond words</t>
-  </si>
-  <si>
-    <t>Beyond</t>
-  </si>
-  <si>
-    <t>And far below its surface is a black hole</t>
-  </si>
-  <si>
-    <t>below</t>
-  </si>
-  <si>
-    <t>But this puts a limit on their size</t>
-  </si>
-  <si>
-    <t>Puts</t>
-  </si>
-  <si>
-    <t>They pulled and concentrated unthinkably gigantic amounts hydrogen gas</t>
-  </si>
-  <si>
-    <t>Unthinkably</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The balance is impossible to uphold. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uphold </t>
-  </si>
-  <si>
-    <t>Excessive</t>
+    <t>investigácion</t>
+  </si>
+  <si>
+    <t>asignatura</t>
+  </si>
+  <si>
+    <t>facultad</t>
+  </si>
+  <si>
+    <t>ingeniería</t>
+  </si>
+  <si>
+    <t>plan de estudios</t>
+  </si>
+  <si>
+    <t>mochila</t>
+  </si>
+  <si>
+    <t>aburrida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,14 +125,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -123,56 +153,116 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -315,83 +405,112 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables examples/vocabulary-example.xlsx
+++ b/Tables examples/vocabulary-example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Front</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>asignatura</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Estoy en mi cuarto curso en la facultad de medicina</t>
@@ -78,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,22 +84,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -133,21 +123,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -178,28 +165,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F818D"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -455,18 +442,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="56.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="56.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="4.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -488,101 +475,59 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
